--- a/src/resources/file/accademia-danza/orari/vignate.xlsx
+++ b/src/resources/file/accademia-danza/orari/vignate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punta\Documents\OtherProject\newstyledance\src\resources\file\accademia-danza\orari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45850579-7B4C-4FBE-992B-E5A9AEBBF2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24E9CA-2C01-4C57-A5D6-3D41BA9B1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="2265" windowWidth="21360" windowHeight="11700" activeTab="3" xr2:uid="{179A5CA7-6924-45EA-B1DE-DE7EBF6FE7EF}"/>
+    <workbookView minimized="1" xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="7785" xr2:uid="{179A5CA7-6924-45EA-B1DE-DE7EBF6FE7EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunedì" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Mercoledì" sheetId="3" r:id="rId3"/>
     <sheet name="Giovedì" sheetId="4" r:id="rId4"/>
     <sheet name="Venerdì" sheetId="6" r:id="rId5"/>
+    <sheet name="Sabato" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>Sala 1</t>
   </si>
@@ -56,34 +57,199 @@
     <t>-</t>
   </si>
   <si>
-    <t>16.30/17.30 HIP HOP Junior</t>
-  </si>
-  <si>
-    <t>17.30/18.30 HIP HOP Kids</t>
-  </si>
-  <si>
-    <t>17.30/18.30 BREAKDANCE Junior</t>
-  </si>
-  <si>
-    <t>18.30/20.00 ZUMBA FITNESS</t>
-  </si>
-  <si>
-    <t>18.30/19.30 BREAKDANCE Base</t>
-  </si>
-  <si>
-    <t>20.00/21.00 DANZE POLINESIANE Base</t>
-  </si>
-  <si>
-    <t>20.30/21.30 DANZA DEL VENTRE Laboratorio coreografico</t>
-  </si>
-  <si>
-    <t>21.00/22.00 DANZE POLINESIANE</t>
-  </si>
-  <si>
-    <t>21.30/22.30 DANZA DEL VENTRE Intermedio</t>
-  </si>
-  <si>
-    <t>21.30/22.30 TANGO ARGENTINO</t>
+    <t>15:30/17:00 CLASSICO INT 1 (4°corso)</t>
+  </si>
+  <si>
+    <t>17:00/18:30 CLASSICO Base 2</t>
+  </si>
+  <si>
+    <t>18:30/20:00 CLASSICO INT Piccoli (2°corso)</t>
+  </si>
+  <si>
+    <t>20:00/21:00 CLASSICO INT 2 (5°corso)</t>
+  </si>
+  <si>
+    <t>21:00/22:00 CLASSICO ADULTI (avanzato)</t>
+  </si>
+  <si>
+    <t>22:00/23:00 CLASSICO ADULTI (avanzato)</t>
+  </si>
+  <si>
+    <t>16:00/17:00 HIP HOP Junior</t>
+  </si>
+  <si>
+    <t>17:00/18:00 HIP HOP Kids</t>
+  </si>
+  <si>
+    <t>19:30/20:30 PILATES</t>
+  </si>
+  <si>
+    <t>20:30/21:30 CARAIBICO Base 2</t>
+  </si>
+  <si>
+    <t>21:30/22:30 CARAIBICO Coreografico (avanzato)</t>
+  </si>
+  <si>
+    <t>17:00/18:00 MODERNO Truccazzano</t>
+  </si>
+  <si>
+    <t>18:00/19:00 CLASSICO Avviamento (1°corso)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:00/22:30 CONTEMPORANEO Avanzato </t>
+  </si>
+  <si>
+    <t>15:30/17:00 MODERNO INT 1</t>
+  </si>
+  <si>
+    <t>17:00/18:00 MODERNO INT Piccoli</t>
+  </si>
+  <si>
+    <t>18:00/19:30 MODERNO INT 2</t>
+  </si>
+  <si>
+    <t>20:30/21:30 MODERNO GRANDI</t>
+  </si>
+  <si>
+    <t>21:30/22:30 MODERNO Avanzato</t>
+  </si>
+  <si>
+    <t>16.15/17:00 GIOCODANZA 1° Livello</t>
+  </si>
+  <si>
+    <t>17:00/18:00 GIOCODANZA 2° Livello</t>
+  </si>
+  <si>
+    <t>18:00/19:00 PROPEDEUTICA 2° Livello</t>
+  </si>
+  <si>
+    <t>19:30/20:30 MODERNO ADULTI</t>
+  </si>
+  <si>
+    <t>Sala 3 (Auditorium)</t>
+  </si>
+  <si>
+    <t>19:30/20:30 LATIN FIT</t>
+  </si>
+  <si>
+    <t>20:30/21:30 CARAIBICO INT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:30/22:30 CARAIBICO INT 2 </t>
+  </si>
+  <si>
+    <t>16:00/17:00 CONTEMPORANEO INT 1</t>
+  </si>
+  <si>
+    <t>17:00/18:00 CLASSICO INT 1 (4°corso)</t>
+  </si>
+  <si>
+    <t>18:30/19:30 GAG CIRCUIT TRAINING RASSODAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:30/20:30 CONTEMPORANEO INT 2 </t>
+  </si>
+  <si>
+    <t>20:30/21:30 CLASSICO INT 2 (5°corso)</t>
+  </si>
+  <si>
+    <t>16:00/17:00 CLASSICO PUNTE</t>
+  </si>
+  <si>
+    <t>17:00/18:00 CONTEMPORANEO BASE</t>
+  </si>
+  <si>
+    <t>18:00/19:00 REPERTORIO INT 1 (4°corso)</t>
+  </si>
+  <si>
+    <t>19:00/20:00 CLASSICO MONOSETTIMANALE</t>
+  </si>
+  <si>
+    <t>20:30/21:30 HEELS</t>
+  </si>
+  <si>
+    <t>21:30/22:30 CONTEMPORANEO OPEN</t>
+  </si>
+  <si>
+    <t>17:00/18:00 SHOW DANCE</t>
+  </si>
+  <si>
+    <t>18:00/19:00 CARAIBICO Junior</t>
+  </si>
+  <si>
+    <t>20:30/21:30 CARAIBICO BASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:30/22:30 CARAIBICO Open </t>
+  </si>
+  <si>
+    <t>16:30/17:30 HIP HOP Junior</t>
+  </si>
+  <si>
+    <t>17:30/18:30 HIP HOP Kids</t>
+  </si>
+  <si>
+    <t>18:30/20:00 ZUMBA FITNESS</t>
+  </si>
+  <si>
+    <t>20:00/21:00 DANZE POLINESIANE Base</t>
+  </si>
+  <si>
+    <t>21:00/22:00 DANZE POLINESIANE</t>
+  </si>
+  <si>
+    <t>17:30/18:30 BREAKDANCE Junior</t>
+  </si>
+  <si>
+    <t>18:30/19:30 BREAKDANCE Base</t>
+  </si>
+  <si>
+    <t>21:30/22:30 DANZA DEL VENTRE Intermedio</t>
+  </si>
+  <si>
+    <t>21:30/22:30 TANGO ARGENTINO</t>
+  </si>
+  <si>
+    <t>20:30/21:30 DANZA DEL VENTRE Laboratorio Coreografico</t>
+  </si>
+  <si>
+    <t>16:00/17:00 REPERTORIO INT 2 (5°corso)</t>
+  </si>
+  <si>
+    <t>17:00/18:00 CLASSICO INT 2 (5°corso)</t>
+  </si>
+  <si>
+    <t>18:00/19:00 CLASSICO INT 1 (4°corso)</t>
+  </si>
+  <si>
+    <t>19:30/20:30 DANCE WORKOUT</t>
+  </si>
+  <si>
+    <t>20:30/21:30 MODERNO INT 2</t>
+  </si>
+  <si>
+    <t>21:30/22:30 MODERNO ADULTI</t>
+  </si>
+  <si>
+    <t>17:00/18:30 MODERNO BASE 2</t>
+  </si>
+  <si>
+    <t>18:30/19:30 MODERNO INT Piccoli</t>
+  </si>
+  <si>
+    <t>19:30/20:30 CLASSICO INT Piccoli (2°corso)</t>
+  </si>
+  <si>
+    <t>20:30/21:30 CLASSICO ADULTI (avanzato)</t>
+  </si>
+  <si>
+    <t>21:30/22:30 CLASSICO MONOSETTIMANALE</t>
+  </si>
+  <si>
+    <t>14:00/15:00 ACROBATICA</t>
+  </si>
+  <si>
+    <t>LEZIONI PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -164,16 +330,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -192,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -490,16 +656,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA1E776-E3A4-44F5-B735-11407C671A82}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,45 +676,74 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7"/>
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,17 +753,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A909A1-C369-4418-9B1A-00DEB93215DA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -580,29 +775,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -612,17 +851,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A220C93-EBC1-460C-AFA4-00B9F0F7D850}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -634,29 +873,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -668,15 +951,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCA12A-7B63-43EE-B094-F3E6BC32E607}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -688,72 +971,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -764,17 +1047,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E023D2A3-688A-4BDC-B03F-794E97430765}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -790,29 +1071,166 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE6B91B-0323-48AA-BC67-151FA4523CF3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
